--- a/medicine/Œil et vue/Hieronymus_Lorm/Hieronymus_Lorm.xlsx
+++ b/medicine/Œil et vue/Hieronymus_Lorm/Hieronymus_Lorm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hieronymus Lorm (de son vrai nom Heinrich Landesmann) né le 9 août 1821 à Nicolsbourg et mort le 3 décembre 1902 à Brünn, était un auteur critique, écrivain, philosophe, et l'inventeur de l'Alphabet de Lorm, un alphabet tactile pour les sourdaveugles.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît en 1821 à Nicolsbourg (Moravie), fils du commerçant juif Christian Landesmann. Il devient sourd à l'âge de 15 ans après une longue maladie, et doit alors abandonner ses études de musique. Il rédige plusieurs poèmes publiés dans des périodiques, et publie son premier ouvrage en 1843 : Abdul. Il s'établit à Vienne où il publie Wien's Poetische Schwingen und Federn : le ton de l'ouvrage étant orienté contre la politique du chancelier Metternich, ses amis lui conseillent de quitter Vienne. Il part alors pour Berlin et prend le pseudonyme de Hieronymus Lorm afin de protéger sa famille d'éventuels problèmes avec la police viennoise. Il se marie en 1856. Vers 1881, il perd définitivement la vue : pour pouvoir communiquer, il développe alors une technique qui sera connue plus tard sous l'appellation d'Alphabet de Lorm (en allemand : Lormen ou Lorm-Alphabet). En 1892, il s'établit chez ses enfants à Brünn où il meurt en 1902.
 Sa sœur Nina Landesmann est la seconde épouse de l'écrivain allemand Berthold Auerbach.
@@ -543,7 +557,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Alphabet de Lorm ne sera publié qu'après sa mort par sa fille.
 Une rue lui rend hommage, le Lormweg à Floridsdorf, un arrondissement de Vienne.
@@ -575,7 +591,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Abdul, 1843, 2de édition Berlin 1852
 Wien's Poetische Schwingen und Federn, Vienne 1847
